--- a/Traces/instant_10_clients.xlsx
+++ b/Traces/instant_10_clients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurent/Documents/Q2/LINGI2146/Project/src/Traces/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996AA572-5A0B-904B-970B-58D28492CB06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCA4E72-0753-614F-A170-518DA9C4392C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F8E3E98A-9FEC-384C-ABCA-646B06952F29}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{F8E3E98A-9FEC-384C-ABCA-646B06952F29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{DFC21601-5BC9-174E-BA82-B309492F7A28}" name="instant_10_clients" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/laurent/Documents/Q2/LINGI2146/Project/src/Traces/instant_10_clients.txt" decimal="," thousands="." space="1" consecutive="1">
+    <textPr sourceFile="/Users/laurent/Documents/Q2/LINGI2146/Project/src/Traces/instant_10_clients.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="30">
         <textField/>
         <textField/>
@@ -571,7 +571,7 @@
   <dimension ref="A1:AB161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="A1:XFD1048576"/>
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1300,8 +1300,8 @@
         <v>32</v>
       </c>
       <c r="U11" s="1">
-        <f>SUM(N12:N291)/COUNT(N12:N291)</f>
-        <v>2.2577094544755658</v>
+        <f>SUM(N:N)/COUNT(N:N)</f>
+        <v>2.4203267822265633</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>33</v>
@@ -1372,8 +1372,8 @@
         <v>34</v>
       </c>
       <c r="U12" s="1">
-        <f>SUM(O13:O292)/COUNT(O13:O292)</f>
-        <v>6.9208315168108284E-2</v>
+        <f>SUM(O:O)/COUNT(O:O)</f>
+        <v>6.8643933105468777E-2</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>33</v>
@@ -1444,8 +1444,8 @@
         <v>35</v>
       </c>
       <c r="U13" s="1">
-        <f>SUM(P14:P293)/COUNT(P14:P293)</f>
-        <v>1.7184281734768434</v>
+        <f>SUM(P:P)/COUNT(P:P)</f>
+        <v>1.9612212890624994</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>33</v>
@@ -1516,8 +1516,8 @@
         <v>36</v>
       </c>
       <c r="U14" s="1">
-        <f>SUM(Q15:Q294)/COUNT(Q15:Q294)</f>
-        <v>1.6673680048403532</v>
+        <f>SUM(Q:Q)/COUNT(Q:Q)</f>
+        <v>1.9606917480468753</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>33</v>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="U16" s="1">
         <f>SUM(U11:U14)</f>
-        <v>5.7127139479608715</v>
+        <v>6.4108837524414071</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>38</v>
